--- a/容错率.xlsx
+++ b/容错率.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M996"/>
+  <dimension ref="A1:M997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41290,6 +41290,47 @@
         <v>0.985929648241206</v>
       </c>
     </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B997" t="n">
+        <v>20240313</v>
+      </c>
+      <c r="C997" t="n">
+        <v>23</v>
+      </c>
+      <c r="D997" t="n">
+        <v>39</v>
+      </c>
+      <c r="E997" t="n">
+        <v>147</v>
+      </c>
+      <c r="F997" t="n">
+        <v>226</v>
+      </c>
+      <c r="G997" t="n">
+        <v>563</v>
+      </c>
+      <c r="H997" t="n">
+        <v>991</v>
+      </c>
+      <c r="I997" t="n">
+        <v>1344</v>
+      </c>
+      <c r="J997" t="n">
+        <v>1989</v>
+      </c>
+      <c r="K997" t="n">
+        <v>101.2644578313253</v>
+      </c>
+      <c r="L997" t="n">
+        <v>6.992971887550199</v>
+      </c>
+      <c r="M997" t="n">
+        <v>0.998995983935743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/容错率.xlsx
+++ b/容错率.xlsx
@@ -41417,10 +41417,8 @@
       <c r="A1000" s="1" t="n">
         <v>998</v>
       </c>
-      <c r="B1000" t="inlineStr">
-        <is>
-          <t>20240318</t>
-        </is>
+      <c r="B1000" t="n">
+        <v>20240318</v>
       </c>
       <c r="C1000" t="n">
         <v>30</v>

--- a/容错率.xlsx
+++ b/容错率.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1000"/>
+  <dimension ref="A1:M1004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41454,6 +41454,170 @@
         <v>0.994994994994995</v>
       </c>
     </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>20240319</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>23</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>209</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>468</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>1058</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>843</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>240.6996</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>6.847</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>20240320</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>18</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>59</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>62</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>173</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>452</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>1142</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>778</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>240.7984015984016</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>6.9005994005994</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>0.993006993006993</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>20240321</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>17</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>46</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>54</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>143</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>342</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>962</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>611</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>241.6636726546906</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>6.759481037924152</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>0.9850299401197604</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>20240322</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>38</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>71</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>205</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>554</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>361</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>242.478963110668</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>6.436191425722832</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>0.9641076769690928</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/容错率.xlsx
+++ b/容错率.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1004"/>
+  <dimension ref="A1:M1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41618,6 +41618,47 @@
         <v>0.9641076769690928</v>
       </c>
     </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>20240325</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>95</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>254</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>161</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>241.6543824701196</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>4.717629482071713</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>0.7599601593625498</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/容错率.xlsx
+++ b/容错率.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1005"/>
+  <dimension ref="A1:M1008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41659,6 +41659,129 @@
         <v>0.7599601593625498</v>
       </c>
     </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>20240326</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>60</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>216</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>121</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>240.8218905472637</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>4.139800995024876</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>0.6875621890547263</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>20240327</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>79</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>64</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>240.7781312127237</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>2.035785288270377</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>0.3717693836978131</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>20240328</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>40</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>107</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>330</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>205</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>240.7624627606753</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>5.538728897715988</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>0.8510427010923536</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/容错率.xlsx
+++ b/容错率.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1008"/>
+  <dimension ref="A1:M1011"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41782,6 +41782,129 @@
         <v>0.8510427010923536</v>
       </c>
     </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>20240329</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>76</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>244</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>148</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>240.3355158730159</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>4.547123015873016</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>0.7390873015873016</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>20240401</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>90</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>247</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>165</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>239.9119920713578</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>4.59217046580773</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>0.7472745292368682</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>20240402</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>42</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>82</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>257</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>164</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>239.4883168316832</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>4.849504950495049</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>0.7772277227722773</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/容错率.xlsx
+++ b/容错率.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1011"/>
+  <dimension ref="A1:M1012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41905,6 +41905,47 @@
         <v>0.7772277227722773</v>
       </c>
     </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>20240403</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>39</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>97</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>335</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>183</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>239.0684470820969</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>0.8130563798219584</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/容错率.xlsx
+++ b/容错率.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1012"/>
+  <dimension ref="A1:M1013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41946,6 +41946,49 @@
         <v>0.8130563798219584</v>
       </c>
     </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>20240408</t>
+        </is>
+      </c>
+      <c r="C1013" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>67</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>205</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>129</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>239.0379446640316</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>3.975296442687747</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>0.6630434782608696</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/容错率.xlsx
+++ b/容错率.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1013"/>
+  <dimension ref="A1:M1026"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41950,10 +41950,8 @@
       <c r="A1013" s="1" t="n">
         <v>1011</v>
       </c>
-      <c r="B1013" t="inlineStr">
-        <is>
-          <t>20240408</t>
-        </is>
+      <c r="B1013" t="n">
+        <v>20240408</v>
       </c>
       <c r="C1013" t="n">
         <v>6</v>
@@ -41987,6 +41985,539 @@
       </c>
       <c r="M1013" t="n">
         <v>0.6630434782608696</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>20240409</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>74</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>247</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>136</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>239.0088845014808</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>4.454096742349456</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>0.7265547877591313</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>20240410</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>62</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>165</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>117</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>238.976134122288</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>3.864891518737673</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>0.6469428007889546</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>20240411</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>40</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>138</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>84</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>238.9369458128079</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>2.785714285714286</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>0.4857142857142857</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>20240412</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>37</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>114</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>75</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>238.496062992126</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>2.49507874015748</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>0.4389763779527559</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>20240415</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>86</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>49</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>238.0501474926254</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>1.330875122910521</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>0.2517207472959685</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>20240416</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>54</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>32</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>238.0009823182712</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>0.8929273084479371</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>0.1532416502946955</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>20240417</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>74</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>44</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>237.9542688910697</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>1.300785083415113</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>0.2423945044160942</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>20240418</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>71</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>237.9068627450981</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>1.408823529411765</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>0.2705882352941177</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>20240419</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>68</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>51</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>237.8617042115573</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>1.669931439764936</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>0.3212536728697356</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>20240422</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>47</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>237.4140900195695</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>0.6878669275929551</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>0.1056751467710371</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>20240423</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>48</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>236.9636363636364</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>0.798631476050831</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>0.1251221896383186</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>20240424</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>63</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>236.9146484375</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>1.044921875</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>0.1806640625</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>20240425</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>71</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>236.8677073170732</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>1.487317073170732</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0.2858536585365854</v>
       </c>
     </row>
   </sheetData>

--- a/容错率.xlsx
+++ b/容错率.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1026"/>
+  <dimension ref="A1:M1027"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42520,6 +42520,47 @@
         <v>0.2858536585365854</v>
       </c>
     </row>
+    <row r="1027">
+      <c r="A1027" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>20240426</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>91</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>236.0212475633528</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>1.510233918128655</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0.290448343079922</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
